--- a/daten/bibeval/xlsx/bibeval_areas.xlsx
+++ b/daten/bibeval/xlsx/bibeval_areas.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninop\Documents\Schule\FS21\PK1\Projekt\Entwicklung\fhgr_pk1\data\raw\cheval_daten_tools_csv\cheval_daten_tools\bibeval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellid\vue-pk1\fhgr_pk1-1\daten\bibeval\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C8AE2-70B9-4854-A105-56A81160E532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA20D06-FB5D-4643-955D-3F2B0C0BC390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C526859-9194-4FAB-9D43-70F63F7CBEFD}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C526859-9194-4FAB-9D43-70F63F7CBEFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="bibeval_tx_siisurveytool_areas" sheetId="2" r:id="rId1"/>
+    <sheet name="bibeval_areas" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_tx_siisurveytool_areas!$A$1:$D$4</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_areas!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,14 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>hidden</t>
   </si>
   <si>
-    <t>root_category_id</t>
-  </si>
-  <si>
     <t>name_de</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>only databases</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>order_number</t>
   </si>
 </sst>
 </file>
@@ -139,14 +142,15 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{79AE4997-D0AE-4F26-B547-04076DE11720}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="15" unboundColumnsRight="1">
+    <queryTableFields count="5">
       <queryTableField id="8" name="hidden" tableColumnId="8"/>
-      <queryTableField id="9" name="root_category_id" tableColumnId="9"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="1"/>
       <queryTableField id="10" name="name_de" tableColumnId="10"/>
       <queryTableField id="11" name="name_en" tableColumnId="11"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
-    <queryTableDeletedFields count="8">
+    <queryTableDeletedFields count="9">
       <deletedField name="uid"/>
       <deletedField name="pid"/>
       <deletedField name="tstamp"/>
@@ -155,19 +159,21 @@
       <deletedField name="cruser_id"/>
       <deletedField name="deleted"/>
       <deletedField name="order_number"/>
+      <deletedField name="root_category_id"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEFCF63B-08DF-400A-A81F-E556DC7A19AF}" name="bibeval_tx_siisurveytool_areas" displayName="bibeval_tx_siisurveytool_areas" ref="A1:D4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{7BB089AE-D819-4A1A-A944-284CBEA7C4A0}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEFCF63B-08DF-400A-A81F-E556DC7A19AF}" name="bibeval_tx_siisurveytool_areas" displayName="bibeval_tx_siisurveytool_areas" ref="A1:E4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{7BB089AE-D819-4A1A-A944-284CBEA7C4A0}"/>
+  <tableColumns count="5">
     <tableColumn id="8" xr3:uid="{E77BBB19-A846-4B99-97A3-ED551A75E52E}" uniqueName="8" name="hidden" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{B275B590-8457-48B6-AFAA-CF5E14BC0BC2}" uniqueName="9" name="root_category_id" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{E3BA1584-BDF9-4D2E-BBBA-E9587F424AC1}" uniqueName="1" name="id" queryTableFieldId="13"/>
     <tableColumn id="10" xr3:uid="{2D0244BC-63A8-417B-9974-9153EECEB9A4}" uniqueName="10" name="name_de" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{11C29132-B773-4FAD-8C2B-4DDEE8D49C6D}" uniqueName="11" name="name_en" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{69C9C71D-1144-41D2-8F62-DA2141275E62}" uniqueName="2" name="order_number" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,35 +476,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D284539A-E375-490E-9E41-EDA55CE0FF2B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.05859375" customWidth="1"/>
+    <col min="3" max="3" width="18.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -506,38 +515,47 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
